--- a/SkyBrightness.xlsx
+++ b/SkyBrightness.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="19540" tabRatio="350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="19540" tabRatio="350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="299">
   <si>
     <t>type</t>
   </si>
@@ -774,21 +774,6 @@
     <t>select_one meter_ids</t>
   </si>
   <si>
-    <t>observation_sites</t>
-  </si>
-  <si>
-    <t>Goodsell Pad</t>
-  </si>
-  <si>
-    <t>Chapel Lot</t>
-  </si>
-  <si>
-    <t>Central Park Center</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -814,18 +799,6 @@
   </si>
   <si>
     <t>relevant</t>
-  </si>
-  <si>
-    <t>GDSLPD_44.461943_-93.152199</t>
-  </si>
-  <si>
-    <t>CHPLLT_44.460032_-93.153929</t>
-  </si>
-  <si>
-    <t>CPKCTR_44.456823_-93.154687</t>
-  </si>
-  <si>
-    <t>OTHER?_44.461045_-93.154695</t>
   </si>
   <si>
     <t>Value displayed by the meter (must be between 8.0 and 22.0)</t>
@@ -1274,10 +1247,6 @@
   </cellStyles>
   <dxfs count="17">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
@@ -1332,6 +1301,10 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1485,7 +1458,7 @@
     <tableColumn id="7" name="appearance" dataDxfId="9"/>
     <tableColumn id="6" name="default"/>
     <tableColumn id="4" name="calculation" dataDxfId="8"/>
-    <tableColumn id="13" name="bind::esri:fieldType" dataDxfId="0"/>
+    <tableColumn id="13" name="bind::esri:fieldType" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1866,7 +1839,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:T245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="B16" sqref="B16"/>
     </sheetView>
@@ -1894,28 +1867,28 @@
         <v>2</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F1" s="24" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="I1" s="24" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1931,10 +1904,10 @@
         <v>211</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="L2" s="6"/>
     </row>
@@ -1943,10 +1916,10 @@
         <v>213</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1981,23 +1954,23 @@
         <v>235</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="16.5" customHeight="1">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -2017,13 +1990,13 @@
         <v>240</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>39</v>
@@ -2042,7 +2015,7 @@
         <v>237</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>4</v>
@@ -2055,13 +2028,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>4</v>
@@ -2072,16 +2045,16 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" customHeight="1">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>4</v>
@@ -2096,22 +2069,22 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
@@ -2123,22 +2096,22 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
@@ -2150,22 +2123,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6" t="s">
@@ -2177,25 +2150,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
@@ -2207,25 +2180,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
@@ -2237,13 +2210,13 @@
         <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>222</v>
@@ -3189,19 +3162,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:B242 B3:B11">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:B16">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="duplicateValues" dxfId="3" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="12"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="C1:I1 D4:D9 E3:I9 C3:C9 C10:I1048576"/>
@@ -3235,11 +3208,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -3262,24 +3235,24 @@
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -3339,7 +3312,7 @@
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1">
       <c r="A9" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -3350,7 +3323,7 @@
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -3361,57 +3334,13 @@
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B11">
         <v>5</v>
       </c>
       <c r="C11">
         <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A14" t="s">
-        <v>250</v>
-      </c>
-      <c r="B14" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C15" t="s">
-        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4422,10 +4351,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A68">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A69:A76">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Label" prompt="The label will act as the question in your survey (e.g., What is your name?)." sqref="B68 B70:B78"/>
